--- a/data/clean_data3.xlsx
+++ b/data/clean_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iannnlee/Documents/GitHub/iannnlee.github.io/iannnlee.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482F1A5-DB5A-3B40-B58A-EE13FE58605B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3D241E-C7AF-6D46-AC43-FB23C0586050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
   </bookViews>
@@ -40,12 +40,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">  Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Post-Secondary (Non-Tertiary)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022 </t>
   </si>
   <si>
@@ -76,13 +70,19 @@
     <t xml:space="preserve">2013 </t>
   </si>
   <si>
-    <t xml:space="preserve">  Below Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Diploma &amp; Professional Qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  University</t>
+    <t>Below Secondary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Post-Secondary (Non-Tertiary)</t>
+  </si>
+  <si>
+    <t>Diploma &amp; Professional Qualification</t>
+  </si>
+  <si>
+    <t>University</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>25.4</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>32.299999999999997</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>23.3</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>26.9</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>21.3</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>21.5</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>22.1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>21.3</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>24</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>21.9</v>

--- a/data/clean_data3.xlsx
+++ b/data/clean_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iannnlee/Documents/GitHub/iannnlee.github.io/iannnlee.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3D241E-C7AF-6D46-AC43-FB23C0586050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF685E5-4E38-554F-B933-A9957A14E6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
   </bookViews>
